--- a/public/nedfac_template.xlsx
+++ b/public/nedfac_template.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LATITUDE 5420\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LATITUDE 5420\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F59907E4-97E8-470E-9428-216F0123560B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA34A70D-5B45-4AF2-B99A-B469B63783B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$U$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$T$2</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
   <si>
     <t>COD_CLIENTE</t>
   </si>
@@ -51,12 +51,6 @@
     <t>GV</t>
   </si>
   <si>
-    <t>SEGMENTO</t>
-  </si>
-  <si>
-    <t>COD_SUBCANAL</t>
-  </si>
-  <si>
     <t>PROMEDIO_CU_3M</t>
   </si>
   <si>
@@ -66,21 +60,12 @@
     <t>N_PUERTAS</t>
   </si>
   <si>
-    <t>SEGMENTO_EJECUCION</t>
-  </si>
-  <si>
-    <t>POTENCIAL</t>
-  </si>
-  <si>
     <t>CONDICION</t>
   </si>
   <si>
     <t>PUERTAS_A_NEGOCIAR</t>
   </si>
   <si>
-    <t>NEGOCIADO_STATUS</t>
-  </si>
-  <si>
     <t>CUOTA</t>
   </si>
   <si>
@@ -93,9 +78,6 @@
     <t>71SV04</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>BODEGAS</t>
   </si>
   <si>
@@ -114,9 +96,6 @@
     <t>SAN MARTESRTESRTIN PLAZA PUCARA</t>
   </si>
   <si>
-    <t>NOMBRE_SUBCANAL</t>
-  </si>
-  <si>
     <t>TAMANO</t>
   </si>
   <si>
@@ -142,6 +121,21 @@
   </si>
   <si>
     <t>Salva</t>
+  </si>
+  <si>
+    <t>NOMBRE_SV</t>
+  </si>
+  <si>
+    <t>PUERTAS_A_NEGOCIAR_2</t>
+  </si>
+  <si>
+    <t>CONDICION_2</t>
+  </si>
+  <si>
+    <t>FECHA_NEGOCIADO</t>
+  </si>
+  <si>
+    <t>2024-07-26</t>
   </si>
 </sst>
 </file>
@@ -216,7 +210,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -224,11 +218,85 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="25">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -272,33 +340,32 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9BB60F3B-E299-4BED-8B4A-47B598CBA2FB}" name="Tabla1" displayName="Tabla1" ref="A1:X2" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:X2" xr:uid="{9BB60F3B-E299-4BED-8B4A-47B598CBA2FB}"/>
-  <tableColumns count="24">
-    <tableColumn id="1" xr3:uid="{387792C5-6BBD-4730-A93A-949463507F30}" name="COD_CLIENTE"/>
-    <tableColumn id="2" xr3:uid="{EF575906-C0EA-49CA-8BC3-9D4673889B23}" name="RUTA"/>
-    <tableColumn id="3" xr3:uid="{8D9E0D4D-DA20-439B-AFB1-F8BBC9BE30B9}" name="FREC_VISITA"/>
-    <tableColumn id="4" xr3:uid="{0CE92239-84E6-47BD-A3DD-5AC3A9CFF161}" name="CLIENTE"/>
-    <tableColumn id="5" xr3:uid="{FD79A271-B302-43EE-BB28-5854579BB0D1}" name="DIRECCION"/>
-    <tableColumn id="6" xr3:uid="{036814A9-328A-4201-BE2A-34486D7CADEC}" name="SV"/>
-    <tableColumn id="7" xr3:uid="{F1416226-8341-4A8E-AA93-60392E04B287}" name="GV"/>
-    <tableColumn id="8" xr3:uid="{1BB10686-07FD-443C-8E64-7D02267E6340}" name="SEGMENTO"/>
-    <tableColumn id="9" xr3:uid="{38445E8A-CEE7-47DA-B9F3-614A2DE07A86}" name="COD_SUBCANAL"/>
-    <tableColumn id="10" xr3:uid="{EECE20B4-4285-4AF0-8007-F685E91E6BBC}" name="NOMBRE_SUBCANAL"/>
-    <tableColumn id="11" xr3:uid="{97494191-A2D5-427D-AE91-4836DB40708E}" name="TAMANO"/>
-    <tableColumn id="13" xr3:uid="{9DF3D83C-2883-48F2-90D0-A7A311253608}" name="PROMEDIO_CU_3M"/>
-    <tableColumn id="14" xr3:uid="{D779C8F3-EDAE-4732-8C0C-C3A075B077C4}" name="N_EDF"/>
-    <tableColumn id="15" xr3:uid="{9E3BD13B-2311-40FC-AC7B-4DC6336ED1A3}" name="N_PUERTAS"/>
-    <tableColumn id="16" xr3:uid="{D3AF07CD-0717-409A-8F8E-884EB62D382A}" name="SEGMENTO_EJECUCION"/>
-    <tableColumn id="17" xr3:uid="{1E1507D4-C212-4AD1-AA51-7F58E528D7CB}" name="POTENCIAL"/>
-    <tableColumn id="18" xr3:uid="{95E9A88B-6E82-4651-8734-DE45080D8960}" name="CONDICION"/>
-    <tableColumn id="19" xr3:uid="{41EA2040-ECE4-475F-9F45-96CE0B19D861}" name="PUERTAS_A_NEGOCIAR"/>
-    <tableColumn id="20" xr3:uid="{9B2D9DF2-FF3A-470B-B1F7-AB89FB879FC6}" name="NEGOCIADO_STATUS"/>
-    <tableColumn id="21" xr3:uid="{B908BAF0-61D2-458B-84B3-4C8F9D67D539}" name="CUOTA"/>
-    <tableColumn id="22" xr3:uid="{CF18DD84-8C3D-4711-9A5F-35A79EAABF23}" name="LOCACION"/>
-    <tableColumn id="23" xr3:uid="{31FFA2A5-0CDA-459F-AF51-0F12C1EBF36A}" name="SV_LIMIT"/>
-    <tableColumn id="24" xr3:uid="{519F487F-17A6-4D5C-96BC-9D6F567481D3}" name="STATUS"/>
-    <tableColumn id="12" xr3:uid="{9B9C9877-69CB-461F-819C-BBDCA7E66FCE}" name="TALLER"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9BB60F3B-E299-4BED-8B4A-47B598CBA2FB}" name="Tabla1" displayName="Tabla1" ref="A1:W2" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
+  <autoFilter ref="A1:W2" xr:uid="{9BB60F3B-E299-4BED-8B4A-47B598CBA2FB}"/>
+  <tableColumns count="23">
+    <tableColumn id="1" xr3:uid="{387792C5-6BBD-4730-A93A-949463507F30}" name="COD_CLIENTE" dataDxfId="22"/>
+    <tableColumn id="2" xr3:uid="{EF575906-C0EA-49CA-8BC3-9D4673889B23}" name="RUTA" dataDxfId="21"/>
+    <tableColumn id="3" xr3:uid="{8D9E0D4D-DA20-439B-AFB1-F8BBC9BE30B9}" name="FREC_VISITA" dataDxfId="20"/>
+    <tableColumn id="4" xr3:uid="{0CE92239-84E6-47BD-A3DD-5AC3A9CFF161}" name="CLIENTE" dataDxfId="19"/>
+    <tableColumn id="5" xr3:uid="{FD79A271-B302-43EE-BB28-5854579BB0D1}" name="DIRECCION" dataDxfId="18"/>
+    <tableColumn id="6" xr3:uid="{036814A9-328A-4201-BE2A-34486D7CADEC}" name="SV" dataDxfId="17"/>
+    <tableColumn id="7" xr3:uid="{F1416226-8341-4A8E-AA93-60392E04B287}" name="GV" dataDxfId="16"/>
+    <tableColumn id="8" xr3:uid="{1BB10686-07FD-443C-8E64-7D02267E6340}" name="NOMBRE_SV" dataDxfId="15"/>
+    <tableColumn id="11" xr3:uid="{97494191-A2D5-427D-AE91-4836DB40708E}" name="TAMANO" dataDxfId="14"/>
+    <tableColumn id="13" xr3:uid="{9DF3D83C-2883-48F2-90D0-A7A311253608}" name="PROMEDIO_CU_3M" dataDxfId="13"/>
+    <tableColumn id="14" xr3:uid="{D779C8F3-EDAE-4732-8C0C-C3A075B077C4}" name="N_EDF" dataDxfId="12"/>
+    <tableColumn id="15" xr3:uid="{9E3BD13B-2311-40FC-AC7B-4DC6336ED1A3}" name="N_PUERTAS" dataDxfId="11"/>
+    <tableColumn id="9" xr3:uid="{FB8348DE-189D-4E74-B9A2-8A7F17435E0B}" name="CONDICION" dataDxfId="10"/>
+    <tableColumn id="10" xr3:uid="{605A8F5E-A4ED-45B8-982B-931712C8A769}" name="PUERTAS_A_NEGOCIAR" dataDxfId="9"/>
+    <tableColumn id="18" xr3:uid="{95E9A88B-6E82-4651-8734-DE45080D8960}" name="CONDICION_2" dataDxfId="8"/>
+    <tableColumn id="19" xr3:uid="{41EA2040-ECE4-475F-9F45-96CE0B19D861}" name="PUERTAS_A_NEGOCIAR_2" dataDxfId="7"/>
+    <tableColumn id="20" xr3:uid="{9B2D9DF2-FF3A-470B-B1F7-AB89FB879FC6}" name="NEGOCIADO" dataDxfId="6"/>
+    <tableColumn id="21" xr3:uid="{B908BAF0-61D2-458B-84B3-4C8F9D67D539}" name="STATUS" dataDxfId="5"/>
+    <tableColumn id="22" xr3:uid="{CF18DD84-8C3D-4711-9A5F-35A79EAABF23}" name="CUOTA" dataDxfId="4"/>
+    <tableColumn id="23" xr3:uid="{31FFA2A5-0CDA-459F-AF51-0F12C1EBF36A}" name="SV_LIMIT" dataDxfId="3"/>
+    <tableColumn id="12" xr3:uid="{9B9C9877-69CB-461F-819C-BBDCA7E66FCE}" name="LOCACION" dataDxfId="2"/>
+    <tableColumn id="16" xr3:uid="{53FBCE4F-80C3-417C-82DD-4DDC57451E5B}" name="TALLER" dataDxfId="1"/>
+    <tableColumn id="17" xr3:uid="{3DBD0666-232A-42EB-AB5B-739E46980946}" name="FECHA_NEGOCIADO" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -589,9 +656,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X2"/>
+  <dimension ref="A1:W2"/>
   <sheetViews>
-    <sheetView showFormulas="1" tabSelected="1" workbookViewId="0"/>
+    <sheetView showFormulas="1" tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="V3" sqref="V3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -603,24 +672,23 @@
     <col min="6" max="6" width="3.88671875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="4" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.77734375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7.77734375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="5.77734375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7.21875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="6.77734375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.5546875" customWidth="1"/>
+    <col min="14" max="14" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.77734375" customWidth="1"/>
+    <col min="19" max="19" width="7.21875" customWidth="1"/>
+    <col min="20" max="20" width="6.77734375" customWidth="1"/>
+    <col min="21" max="21" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -643,16 +711,16 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>9</v>
@@ -664,107 +732,101 @@
         <v>11</v>
       </c>
       <c r="O1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="S1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="T1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
+        <v>1000011</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="C2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="E2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="G2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="I2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="U1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1000011</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="J2" s="3">
+        <v>17.864599999999999</v>
+      </c>
+      <c r="K2" s="3">
+        <v>0</v>
+      </c>
+      <c r="L2" s="3">
+        <v>0</v>
+      </c>
+      <c r="M2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C2" t="s">
+      <c r="N2" s="3">
+        <v>1</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="P2" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="S2" s="3">
+        <v>4</v>
+      </c>
+      <c r="T2" s="3">
+        <v>20</v>
+      </c>
+      <c r="U2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K2" t="s">
-        <v>23</v>
-      </c>
-      <c r="L2">
-        <v>17.864599999999999</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2" t="s">
-        <v>21</v>
-      </c>
-      <c r="P2" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>24</v>
-      </c>
-      <c r="R2">
-        <v>1</v>
-      </c>
-      <c r="S2" t="s">
-        <v>26</v>
-      </c>
-      <c r="T2">
-        <v>4</v>
-      </c>
-      <c r="U2" t="s">
-        <v>32</v>
-      </c>
-      <c r="V2">
-        <v>20</v>
-      </c>
-      <c r="W2" t="s">
-        <v>36</v>
-      </c>
-      <c r="X2" t="s">
+      <c r="V2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="W2" s="4" t="s">
         <v>35</v>
       </c>
     </row>
